--- a/figures/methods/yeast_media1.xlsx
+++ b/figures/methods/yeast_media1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="2860" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="33240" yWindow="3340" windowWidth="26100" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Yeast extract Peptone Dextrose (YPD)</t>
   </si>
@@ -62,6 +62,33 @@
     <t>10 % v/v</t>
   </si>
   <si>
+    <t>Sporulation plates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potassium acetate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacto Agar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino acid stock (sporulation plate) </t>
+  </si>
+  <si>
+    <t>0.25 % v/v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2 g </t>
+  </si>
+  <si>
+    <t>Uracil, Histidine, Methionine</t>
+  </si>
+  <si>
+    <t>0.3 g</t>
+  </si>
+  <si>
+    <t>Leucine, Lysine</t>
+  </si>
+  <si>
     <t>Adenine</t>
   </si>
   <si>
@@ -75,6 +102,27 @@
   </si>
   <si>
     <t>2 g each</t>
+  </si>
+  <si>
+    <t>Antibiotic selection plates</t>
+  </si>
+  <si>
+    <t>Hygromycin B (Hph) (InvivoGen)</t>
+  </si>
+  <si>
+    <t>Geneticin disulphate salt (G418) (Sigma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nourseothricin (clonNAT) (Werner BioAgents) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 mg/L </t>
+  </si>
+  <si>
+    <t>200 mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 mg/L </t>
   </si>
   <si>
     <t>Alanine, Arginine, Asparagine, Aspartic acid, Cysteine, Glutamine, Glutamic acid, Glycine, Histidine, Inositol, Isoleucine, Lysine, Methionine, para-Aminobenzoic acid, Phenylalanine, Proline, Serine, Threonine, Tryptophan, Tyrosine, Uracil, Valine. For auxotrophic selection, one amino acid is left out</t>
@@ -91,10 +139,26 @@
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <charset val="129"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>–dissolved in 100 mL H20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amino acid stock (sporulation plate) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>–dissolved in 100 mL H20</t>
     </r>
@@ -113,23 +177,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <charset val="129"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <charset val="129"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,22 +224,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,135 +518,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="160" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
